--- a/F9Resource/src/Keywords/Automation Test Cases/Backup/Master Label Names.xlsx
+++ b/F9Resource/src/Keywords/Automation Test Cases/Backup/Master Label Names.xlsx
@@ -2,21 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="2" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="TestScenarios" r:id="rId1" sheetId="1"/>
-    <sheet name="TestCases Login" r:id="rId2" sheetId="2"/>
-    <sheet name="TestCases AccountMaster" r:id="rId3" sheetId="3"/>
+    <sheet name="TestScenarios" sheetId="1" r:id="rId1"/>
+    <sheet name="TestCases Login" sheetId="2" r:id="rId2"/>
+    <sheet name="TestCases AccountMaster" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="74">
   <si>
     <t>Test Scenario ID</t>
   </si>
@@ -162,9 +162,6 @@
     <t>A0407</t>
   </si>
   <si>
-    <t>Fail</t>
-  </si>
-  <si>
     <t>Capacity</t>
   </si>
   <si>
@@ -241,16 +238,12 @@
   </si>
   <si>
     <t>Fixed Assets</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -276,197 +269,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none">
@@ -504,80 +312,55 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+  <cellXfs count="18">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="14" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="30" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="32" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="36" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="38" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -591,10 +374,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -752,7 +535,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -761,13 +544,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -777,7 +560,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -786,7 +569,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -795,7 +578,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -805,12 +588,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -841,7 +624,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -860,7 +643,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -872,19 +655,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="30.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -911,9 +694,7 @@
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="38" t="s">
-        <v>32</v>
-      </c>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -925,9 +706,7 @@
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="40" t="s">
-        <v>48</v>
-      </c>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -939,9 +718,7 @@
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s" s="42">
-        <v>32</v>
-      </c>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -953,9 +730,7 @@
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="30" t="s">
-        <v>32</v>
-      </c>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -967,9 +742,7 @@
       <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>32</v>
-      </c>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -981,9 +754,7 @@
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="20" t="s">
-        <v>32</v>
-      </c>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -995,18 +766,16 @@
       <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="22" t="s">
-        <v>32</v>
-      </c>
+      <c r="D8" s="2"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -1014,14 +783,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>23</v>
       </c>
@@ -1047,7 +816,7 @@
         <v>16</v>
       </c>
     </row>
-    <row customFormat="1" ht="75" r="2" s="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="15" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>4</v>
       </c>
@@ -1057,7 +826,7 @@
       <c r="C2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="17" t="s">
         <v>32</v>
       </c>
       <c r="E2" s="14" t="s">
@@ -1074,27 +843,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AI7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="9" width="13.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="9" width="23.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="9" width="47.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="9" width="16.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="9" width="16.42578125" collapsed="true"/>
-    <col min="6" max="16384" style="9" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="13.28515625" style="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.28515625" style="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="47.7109375" style="9" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.42578125" style="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.42578125" style="9" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="9" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
@@ -1120,7 +889,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row ht="30" r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -1130,9 +899,7 @@
       <c r="C2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="39" t="s">
-        <v>48</v>
-      </c>
+      <c r="D2" s="6"/>
       <c r="E2" s="6" t="s">
         <v>37</v>
       </c>
@@ -1155,7 +922,7 @@
         <v>39</v>
       </c>
     </row>
-    <row ht="30" r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
@@ -1165,9 +932,7 @@
       <c r="C3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="41" t="s">
-        <v>32</v>
-      </c>
+      <c r="D3" s="6"/>
       <c r="E3" s="6" t="s">
         <v>26</v>
       </c>
@@ -1178,7 +943,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row ht="30" r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
@@ -1188,9 +953,7 @@
       <c r="C4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="29" t="s">
-        <v>32</v>
-      </c>
+      <c r="D4" s="6"/>
       <c r="E4" s="6" t="s">
         <v>33</v>
       </c>
@@ -1201,91 +964,91 @@
         <v>42</v>
       </c>
       <c r="H4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" t="s">
         <v>49</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>50</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>51</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>52</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>53</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>54</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>55</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>56</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>57</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>58</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>59</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>60</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>61</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>62</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>63</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>64</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>65</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>66</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>67</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>68</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>69</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>70</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>71</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>72</v>
       </c>
-      <c r="AF4" t="s">
-        <v>73</v>
-      </c>
       <c r="AG4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH4" t="s">
         <v>57</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AI4" t="s">
         <v>58</v>
       </c>
-      <c r="AI4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row ht="30" r="5" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>34</v>
       </c>
@@ -1295,9 +1058,7 @@
       <c r="C5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>32</v>
-      </c>
+      <c r="D5" s="6"/>
       <c r="E5" s="16" t="s">
         <v>37</v>
       </c>
@@ -1308,7 +1069,7 @@
         <v>29</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>30</v>
@@ -1318,7 +1079,7 @@
       </c>
       <c r="K5" s="2"/>
     </row>
-    <row ht="30" r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>35</v>
       </c>
@@ -1328,9 +1089,7 @@
       <c r="C6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="19" t="s">
-        <v>32</v>
-      </c>
+      <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
         <v>26</v>
       </c>
@@ -1341,7 +1100,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row ht="30" r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>36</v>
       </c>
@@ -1351,9 +1110,7 @@
       <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="21" t="s">
-        <v>32</v>
-      </c>
+      <c r="D7" s="6"/>
       <c r="E7" s="6" t="s">
         <v>33</v>
       </c>
@@ -1377,7 +1134,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>